--- a/biology/Zoologie/Campyloptère_violet/Campyloptère_violet.xlsx
+++ b/biology/Zoologie/Campyloptère_violet/Campyloptère_violet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylopterus hemileucurus
 Le Campyloptère violet ou Campyloptère de Delattre (Campylopterus hemileucurus) est une espèce d’oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend du sud du Mexique au sud du Costa Rica et à l'ouest du Panama.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce trapue mesure 13 à 15 cm pour une masse moyenne de 11,8 g pour le mâle et 9,5 g pour la femelle. Le mâle est violet foncé, couleur présente uniquement au niveau de la gorge chez la femelle. Les deux sexes présentent un bec arqué et des extrémités blanches aux rectrices externes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme le nectar de fleurs en particulier du genre Heliconia.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de montagne surtout de 1 000 à 2 400 m d'altitude. De novembre à avril, des individus peuvent descendre plus bas, occasionnellement jusqu'au niveau de la mer[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite les forêts tropicales et subtropicales humides de montagne surtout de 1 000 à 2 400 m d'altitude. De novembre à avril, des individus peuvent descendre plus bas, occasionnellement jusqu'au niveau de la mer.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Campylopt%C3%A8re_violet</t>
+          <t>Campyloptère_violet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 10.1, 2020) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Campylopterus hemileucurus hemileucurus (Deppe, 1830) ;
